--- a/data/leg_historical_prices.xlsx
+++ b/data/leg_historical_prices.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I754"/>
+  <dimension ref="A1:I755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
         <v>1079500</v>
       </c>
       <c r="H2" t="n">
-        <v>39.48089981079102</v>
+        <v>39.48090362548828</v>
       </c>
       <c r="I2" t="n">
         <v>0.4</v>
@@ -540,7 +540,7 @@
         <v>1354200</v>
       </c>
       <c r="H3" t="n">
-        <v>39.02088928222656</v>
+        <v>39.02089309692383</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>891400</v>
       </c>
       <c r="H4" t="n">
-        <v>39.39244079589844</v>
+        <v>39.39243698120117</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>1092500</v>
       </c>
       <c r="H5" t="n">
-        <v>39.74629211425781</v>
+        <v>39.74628829956055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>4270700</v>
       </c>
       <c r="H6" t="n">
-        <v>38.98550796508789</v>
+        <v>38.98551177978516</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>791100</v>
       </c>
       <c r="H8" t="n">
-        <v>36.89778518676758</v>
+        <v>36.89778900146484</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>764400</v>
       </c>
       <c r="H11" t="n">
-        <v>36.27855682373047</v>
+        <v>36.27854919433594</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>834800</v>
       </c>
       <c r="H12" t="n">
-        <v>37.28702926635742</v>
+        <v>37.28702545166016</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>667500</v>
       </c>
       <c r="H13" t="n">
-        <v>36.02200698852539</v>
+        <v>36.02201461791992</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>832200</v>
       </c>
       <c r="H14" t="n">
-        <v>36.42008590698242</v>
+        <v>36.42008209228516</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>813600</v>
       </c>
       <c r="H15" t="n">
-        <v>36.84471130371094</v>
+        <v>36.8447151184082</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>467800</v>
       </c>
       <c r="H17" t="n">
-        <v>38.38396835327148</v>
+        <v>38.38396072387695</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>700000</v>
       </c>
       <c r="H18" t="n">
-        <v>37.41971588134766</v>
+        <v>37.41971206665039</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>649500</v>
       </c>
       <c r="H20" t="n">
-        <v>39.12705230712891</v>
+        <v>39.12704467773438</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>889900</v>
       </c>
       <c r="H21" t="n">
-        <v>39.755126953125</v>
+        <v>39.75513458251953</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>717300</v>
       </c>
       <c r="H22" t="n">
-        <v>39.79936599731445</v>
+        <v>39.79936981201172</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>536300</v>
       </c>
       <c r="H23" t="n">
-        <v>39.25974273681641</v>
+        <v>39.25974655151367</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>696800</v>
       </c>
       <c r="H25" t="n">
-        <v>40.39205932617188</v>
+        <v>40.39206695556641</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>506800</v>
       </c>
       <c r="H29" t="n">
-        <v>38.7555046081543</v>
+        <v>38.75551223754883</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>600300</v>
       </c>
       <c r="H31" t="n">
-        <v>39.31281661987305</v>
+        <v>39.31282424926758</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>954700</v>
       </c>
       <c r="H32" t="n">
-        <v>38.2070426940918</v>
+        <v>38.20703887939453</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>848900</v>
       </c>
       <c r="H33" t="n">
-        <v>37.16317749023438</v>
+        <v>37.16317367553711</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>4065100</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91548919677734</v>
+        <v>36.91548538208008</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>2430200</v>
       </c>
       <c r="H38" t="n">
-        <v>36.69432830810547</v>
+        <v>36.6943244934082</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>715900</v>
       </c>
       <c r="H40" t="n">
-        <v>37.42856597900391</v>
+        <v>37.42856979370117</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1199900</v>
       </c>
       <c r="H43" t="n">
-        <v>38.03010940551758</v>
+        <v>38.03011322021484</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>1227300</v>
       </c>
       <c r="H45" t="n">
-        <v>35.3762321472168</v>
+        <v>35.37622833251953</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>1097700</v>
       </c>
       <c r="H46" t="n">
-        <v>37.03933334350586</v>
+        <v>37.03932952880859</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>619700</v>
       </c>
       <c r="H49" t="n">
-        <v>37.64972305297852</v>
+        <v>37.64971923828125</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>696100</v>
       </c>
       <c r="H50" t="n">
-        <v>38.26011657714844</v>
+        <v>38.26011276245117</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>1241500</v>
       </c>
       <c r="H51" t="n">
-        <v>38.44589614868164</v>
+        <v>38.44588470458984</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>588700</v>
       </c>
       <c r="H52" t="n">
-        <v>38.66704177856445</v>
+        <v>38.66703796386719</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>715200</v>
       </c>
       <c r="H54" t="n">
-        <v>39.67551422119141</v>
+        <v>39.67552185058594</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>910500</v>
       </c>
       <c r="H56" t="n">
-        <v>38.12742233276367</v>
+        <v>38.12741470336914</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>523100</v>
       </c>
       <c r="H58" t="n">
-        <v>37.75587463378906</v>
+        <v>37.75587844848633</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>807100</v>
       </c>
       <c r="H59" t="n">
-        <v>39.16243362426758</v>
+        <v>39.16242599487305</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>590300</v>
       </c>
       <c r="H60" t="n">
-        <v>39.48974227905273</v>
+        <v>39.4897346496582</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>470200</v>
       </c>
       <c r="H61" t="n">
-        <v>39.03858184814453</v>
+        <v>39.0385856628418</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>2191500</v>
       </c>
       <c r="H63" t="n">
-        <v>36.94202041625977</v>
+        <v>36.9420166015625</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>695900</v>
       </c>
       <c r="H65" t="n">
-        <v>36.42008590698242</v>
+        <v>36.42008209228516</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1590800</v>
       </c>
       <c r="H69" t="n">
-        <v>37.34913635253906</v>
+        <v>37.3491325378418</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>2332300</v>
       </c>
       <c r="H70" t="n">
-        <v>37.29552841186523</v>
+        <v>37.2955322265625</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>725900</v>
       </c>
       <c r="H72" t="n">
-        <v>36.88461303710938</v>
+        <v>36.88460540771484</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>568200</v>
       </c>
       <c r="H74" t="n">
-        <v>37.94763946533203</v>
+        <v>37.9476432800293</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>1459700</v>
       </c>
       <c r="H75" t="n">
-        <v>38.68015289306641</v>
+        <v>38.68015670776367</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>980500</v>
       </c>
       <c r="H76" t="n">
-        <v>38.16204071044922</v>
+        <v>38.16203308105469</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>1167500</v>
       </c>
       <c r="H78" t="n">
-        <v>39.57345962524414</v>
+        <v>39.57346343994141</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>1104600</v>
       </c>
       <c r="H80" t="n">
-        <v>38.35856246948242</v>
+        <v>38.35856628417969</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>1584500</v>
       </c>
       <c r="H81" t="n">
-        <v>40.03797912597656</v>
+        <v>40.03798294067383</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>813400</v>
       </c>
       <c r="H82" t="n">
-        <v>40.16304779052734</v>
+        <v>40.16304016113281</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>881900</v>
       </c>
       <c r="H84" t="n">
-        <v>39.19826889038086</v>
+        <v>39.19827270507812</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>958700</v>
       </c>
       <c r="H86" t="n">
-        <v>39.18933868408203</v>
+        <v>39.18933486938477</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>841400</v>
       </c>
       <c r="H87" t="n">
-        <v>39.29653549194336</v>
+        <v>39.29653930664062</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>750600</v>
       </c>
       <c r="H88" t="n">
-        <v>39.04641342163086</v>
+        <v>39.04640579223633</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>743900</v>
       </c>
       <c r="H90" t="n">
-        <v>39.50199508666992</v>
+        <v>39.50199890136719</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>827700</v>
       </c>
       <c r="H91" t="n">
-        <v>39.86825180053711</v>
+        <v>39.86825561523438</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>926800</v>
       </c>
       <c r="H92" t="n">
-        <v>39.47519683837891</v>
+        <v>39.47519302368164</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>867700</v>
       </c>
       <c r="H94" t="n">
-        <v>38.36750030517578</v>
+        <v>38.36749267578125</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1325100</v>
       </c>
       <c r="H95" t="n">
-        <v>37.67071151733398</v>
+        <v>37.67071533203125</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>2664700</v>
       </c>
       <c r="H97" t="n">
-        <v>36.62555313110352</v>
+        <v>36.62554931640625</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>729600</v>
       </c>
       <c r="H99" t="n">
-        <v>37.80471038818359</v>
+        <v>37.80471801757812</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>800500</v>
       </c>
       <c r="H100" t="n">
-        <v>37.92084884643555</v>
+        <v>37.92084121704102</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>1044100</v>
       </c>
       <c r="H101" t="n">
-        <v>38.05483627319336</v>
+        <v>38.05483245849609</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>1012800</v>
       </c>
       <c r="H102" t="n">
-        <v>38.43003463745117</v>
+        <v>38.43002700805664</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>1447200</v>
       </c>
       <c r="H103" t="n">
-        <v>39.00174331665039</v>
+        <v>39.00174713134766</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>1367900</v>
       </c>
       <c r="H104" t="n">
-        <v>38.43896102905273</v>
+        <v>38.4389533996582</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>1257800</v>
       </c>
       <c r="H105" t="n">
-        <v>37.76897811889648</v>
+        <v>37.76898193359375</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>886500</v>
       </c>
       <c r="H106" t="n">
-        <v>38.30496215820312</v>
+        <v>38.30497360229492</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>783800</v>
       </c>
       <c r="H108" t="n">
-        <v>37.67071151733398</v>
+        <v>37.67071533203125</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>661200</v>
       </c>
       <c r="H109" t="n">
-        <v>37.29552841186523</v>
+        <v>37.2955322265625</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>510400</v>
       </c>
       <c r="H110" t="n">
-        <v>37.38486099243164</v>
+        <v>37.38485717773438</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>683200</v>
       </c>
       <c r="H111" t="n">
-        <v>38.37643432617188</v>
+        <v>38.37643051147461</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>614900</v>
       </c>
       <c r="H112" t="n">
-        <v>38.59975051879883</v>
+        <v>38.59975814819336</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>846600</v>
       </c>
       <c r="H113" t="n">
-        <v>38.74268341064453</v>
+        <v>38.7426872253418</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>960500</v>
       </c>
       <c r="H117" t="n">
-        <v>39.35012817382812</v>
+        <v>39.35013580322266</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>1019900</v>
       </c>
       <c r="H118" t="n">
-        <v>40.12731170654297</v>
+        <v>40.12730407714844</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -4136,7 +4136,7 @@
         <v>1233100</v>
       </c>
       <c r="H119" t="n">
-        <v>41.00275421142578</v>
+        <v>41.00275039672852</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>1438400</v>
       </c>
       <c r="H120" t="n">
-        <v>39.484130859375</v>
+        <v>39.48413467407227</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1167800</v>
       </c>
       <c r="H121" t="n">
-        <v>42.28910827636719</v>
+        <v>42.28911590576172</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>1733700</v>
       </c>
       <c r="H122" t="n">
-        <v>43.56653213500977</v>
+        <v>43.5665397644043</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -4291,7 +4291,7 @@
         <v>938000</v>
       </c>
       <c r="H124" t="n">
-        <v>44.057861328125</v>
+        <v>44.05785369873047</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>920600</v>
       </c>
       <c r="H127" t="n">
-        <v>44.24500274658203</v>
+        <v>44.2450065612793</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>1205500</v>
       </c>
       <c r="H133" t="n">
-        <v>39.75024795532227</v>
+        <v>39.750244140625</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>1148600</v>
       </c>
       <c r="H134" t="n">
-        <v>39.67818450927734</v>
+        <v>39.67818832397461</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -4632,7 +4632,7 @@
         <v>1359600</v>
       </c>
       <c r="H135" t="n">
-        <v>41.40763854980469</v>
+        <v>41.40763473510742</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         <v>820900</v>
       </c>
       <c r="H136" t="n">
-        <v>41.88502883911133</v>
+        <v>41.88504028320312</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -4694,7 +4694,7 @@
         <v>1001000</v>
       </c>
       <c r="H137" t="n">
-        <v>40.9932861328125</v>
+        <v>40.99328231811523</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>787100</v>
       </c>
       <c r="H138" t="n">
-        <v>41.60579681396484</v>
+        <v>41.60580062866211</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>552500</v>
       </c>
       <c r="H140" t="n">
-        <v>41.83999252319336</v>
+        <v>41.83999633789062</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>578200</v>
       </c>
       <c r="H141" t="n">
-        <v>42.20029067993164</v>
+        <v>42.20029830932617</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>904400</v>
       </c>
       <c r="H142" t="n">
-        <v>41.74090957641602</v>
+        <v>41.74091720581055</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>715100</v>
       </c>
       <c r="H144" t="n">
-        <v>41.88502883911133</v>
+        <v>41.88504028320312</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         <v>573500</v>
       </c>
       <c r="H145" t="n">
-        <v>42.68669891357422</v>
+        <v>42.68670272827148</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>941400</v>
       </c>
       <c r="H147" t="n">
-        <v>42.44350051879883</v>
+        <v>42.44349670410156</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>611900</v>
       </c>
       <c r="H148" t="n">
-        <v>43.19112777709961</v>
+        <v>43.19113159179688</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -5128,7 +5128,7 @@
         <v>798600</v>
       </c>
       <c r="H151" t="n">
-        <v>44.24500274658203</v>
+        <v>44.2450065612793</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -5190,7 +5190,7 @@
         <v>879100</v>
       </c>
       <c r="H153" t="n">
-        <v>45.2718620300293</v>
+        <v>45.27186965942383</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -5221,7 +5221,7 @@
         <v>1169100</v>
       </c>
       <c r="H154" t="n">
-        <v>44.74942779541016</v>
+        <v>44.74943161010742</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>681100</v>
       </c>
       <c r="H156" t="n">
-        <v>45.62316513061523</v>
+        <v>45.62316131591797</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -5500,7 +5500,7 @@
         <v>1430500</v>
       </c>
       <c r="H163" t="n">
-        <v>50.41516876220703</v>
+        <v>50.4151725769043</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -5562,7 +5562,7 @@
         <v>939600</v>
       </c>
       <c r="H165" t="n">
-        <v>51.82035064697266</v>
+        <v>51.82033920288086</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>1184400</v>
       </c>
       <c r="H167" t="n">
-        <v>51.06371307373047</v>
+        <v>51.06371688842773</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>923200</v>
       </c>
       <c r="H168" t="n">
-        <v>49.09106063842773</v>
+        <v>49.09105682373047</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>767800</v>
       </c>
       <c r="H169" t="n">
-        <v>50.63134765625</v>
+        <v>50.63134384155273</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>701000</v>
       </c>
       <c r="H171" t="n">
-        <v>50.460205078125</v>
+        <v>50.46020889282227</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -5779,7 +5779,7 @@
         <v>714200</v>
       </c>
       <c r="H172" t="n">
-        <v>49.50540542602539</v>
+        <v>49.50540161132812</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -5872,7 +5872,7 @@
         <v>761300</v>
       </c>
       <c r="H175" t="n">
-        <v>48.73976516723633</v>
+        <v>48.73976898193359</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>516700</v>
       </c>
       <c r="H176" t="n">
-        <v>49.09106063842773</v>
+        <v>49.09105682373047</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -5934,7 +5934,7 @@
         <v>527700</v>
       </c>
       <c r="H177" t="n">
-        <v>48.81182861328125</v>
+        <v>48.81182479858398</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -5996,7 +5996,7 @@
         <v>954300</v>
       </c>
       <c r="H179" t="n">
-        <v>49.72158813476562</v>
+        <v>49.72159194946289</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -6027,7 +6027,7 @@
         <v>413400</v>
       </c>
       <c r="H180" t="n">
-        <v>49.56846618652344</v>
+        <v>49.56845855712891</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>706400</v>
       </c>
       <c r="H181" t="n">
-        <v>50.17197418212891</v>
+        <v>50.17196655273438</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -6182,7 +6182,7 @@
         <v>406600</v>
       </c>
       <c r="H185" t="n">
-        <v>49.24419021606445</v>
+        <v>49.24419403076172</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -6213,7 +6213,7 @@
         <v>412300</v>
       </c>
       <c r="H186" t="n">
-        <v>49.43335723876953</v>
+        <v>49.433349609375</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -6244,7 +6244,7 @@
         <v>403700</v>
       </c>
       <c r="H187" t="n">
-        <v>48.64068222045898</v>
+        <v>48.64068603515625</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>387000</v>
       </c>
       <c r="H188" t="n">
-        <v>48.12725830078125</v>
+        <v>48.12725448608398</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -6306,7 +6306,7 @@
         <v>534700</v>
       </c>
       <c r="H189" t="n">
-        <v>48.64068222045898</v>
+        <v>48.64068603515625</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         <v>632900</v>
       </c>
       <c r="H191" t="n">
-        <v>47.44236373901367</v>
+        <v>47.44236755371094</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>675600</v>
       </c>
       <c r="H192" t="n">
-        <v>46.34391403198242</v>
+        <v>46.34391021728516</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>864300</v>
       </c>
       <c r="H193" t="n">
-        <v>44.98219680786133</v>
+        <v>44.9821891784668</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -6492,7 +6492,7 @@
         <v>861800</v>
       </c>
       <c r="H195" t="n">
-        <v>45.80830383300781</v>
+        <v>45.80830001831055</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>761300</v>
       </c>
       <c r="H196" t="n">
-        <v>45.93539810180664</v>
+        <v>45.93539428710938</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -6554,7 +6554,7 @@
         <v>874800</v>
       </c>
       <c r="H197" t="n">
-        <v>45.90816497802734</v>
+        <v>45.90816116333008</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -6647,7 +6647,7 @@
         <v>840200</v>
       </c>
       <c r="H200" t="n">
-        <v>46.31668090820312</v>
+        <v>46.31667709350586</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -6678,7 +6678,7 @@
         <v>581300</v>
       </c>
       <c r="H201" t="n">
-        <v>46.52547836303711</v>
+        <v>46.52547454833984</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>1145500</v>
       </c>
       <c r="H202" t="n">
-        <v>47.03385162353516</v>
+        <v>47.03385543823242</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>1080500</v>
       </c>
       <c r="H203" t="n">
-        <v>46.97031021118164</v>
+        <v>46.97030258178711</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>523900</v>
       </c>
       <c r="H205" t="n">
-        <v>45.8173828125</v>
+        <v>45.81737899780273</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>563800</v>
       </c>
       <c r="H207" t="n">
-        <v>45.21822357177734</v>
+        <v>45.21822738647461</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>368900</v>
       </c>
       <c r="H209" t="n">
-        <v>46.1169548034668</v>
+        <v>46.11695861816406</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>1004500</v>
       </c>
       <c r="H214" t="n">
-        <v>42.65819549560547</v>
+        <v>42.65818786621094</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>641700</v>
       </c>
       <c r="H216" t="n">
-        <v>44.13792037963867</v>
+        <v>44.13792419433594</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -7174,7 +7174,7 @@
         <v>605000</v>
       </c>
       <c r="H217" t="n">
-        <v>43.38443756103516</v>
+        <v>43.38444137573242</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -7236,7 +7236,7 @@
         <v>782600</v>
       </c>
       <c r="H219" t="n">
-        <v>43.72032928466797</v>
+        <v>43.72033309936523</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>740400</v>
       </c>
       <c r="H220" t="n">
-        <v>43.38443756103516</v>
+        <v>43.38444137573242</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>803900</v>
       </c>
       <c r="H222" t="n">
-        <v>44.12884521484375</v>
+        <v>44.12885284423828</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -7453,7 +7453,7 @@
         <v>847000</v>
       </c>
       <c r="H226" t="n">
-        <v>43.65678787231445</v>
+        <v>43.65678405761719</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>484000</v>
       </c>
       <c r="H227" t="n">
-        <v>43.92913055419922</v>
+        <v>43.92912673950195</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>429900</v>
       </c>
       <c r="H228" t="n">
-        <v>43.73848342895508</v>
+        <v>43.73849105834961</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -7639,7 +7639,7 @@
         <v>387600</v>
       </c>
       <c r="H232" t="n">
-        <v>45.03665924072266</v>
+        <v>45.03666305541992</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -7763,7 +7763,7 @@
         <v>584200</v>
       </c>
       <c r="H236" t="n">
-        <v>43.38443756103516</v>
+        <v>43.38444137573242</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -7794,7 +7794,7 @@
         <v>439400</v>
       </c>
       <c r="H237" t="n">
-        <v>42.56740188598633</v>
+        <v>42.56740951538086</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>972700</v>
       </c>
       <c r="H238" t="n">
-        <v>43.39351272583008</v>
+        <v>43.39351654052734</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>469100</v>
       </c>
       <c r="H241" t="n">
-        <v>44.68260955810547</v>
+        <v>44.6826171875</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>410100</v>
       </c>
       <c r="H242" t="n">
-        <v>44.09253311157227</v>
+        <v>44.092529296875</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -7980,7 +7980,7 @@
         <v>440800</v>
       </c>
       <c r="H243" t="n">
-        <v>44.8823356628418</v>
+        <v>44.88233184814453</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -8042,7 +8042,7 @@
         <v>760700</v>
       </c>
       <c r="H245" t="n">
-        <v>43.92913055419922</v>
+        <v>43.92912673950195</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>453500</v>
       </c>
       <c r="H246" t="n">
-        <v>43.81110763549805</v>
+        <v>43.81111145019531</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -8104,7 +8104,7 @@
         <v>442400</v>
       </c>
       <c r="H247" t="n">
-        <v>44.13792037963867</v>
+        <v>44.13792419433594</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -8166,7 +8166,7 @@
         <v>658200</v>
       </c>
       <c r="H249" t="n">
-        <v>42.73081588745117</v>
+        <v>42.73080825805664</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -8197,7 +8197,7 @@
         <v>496700</v>
       </c>
       <c r="H250" t="n">
-        <v>42.02272033691406</v>
+        <v>42.0227165222168</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>811300</v>
       </c>
       <c r="H251" t="n">
-        <v>42.79435729980469</v>
+        <v>42.79436111450195</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>726700</v>
       </c>
       <c r="H254" t="n">
-        <v>42.59687805175781</v>
+        <v>42.59687423706055</v>
       </c>
       <c r="I254" t="n">
         <v>0.42</v>
@@ -8383,7 +8383,7 @@
         <v>487500</v>
       </c>
       <c r="H256" t="n">
-        <v>42.67929840087891</v>
+        <v>42.67930221557617</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>1922100</v>
       </c>
       <c r="H257" t="n">
-        <v>42.27632904052734</v>
+        <v>42.27632141113281</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>548300</v>
       </c>
       <c r="H259" t="n">
-        <v>41.62605667114258</v>
+        <v>41.62606430053711</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -8507,7 +8507,7 @@
         <v>631700</v>
       </c>
       <c r="H260" t="n">
-        <v>42.02904510498047</v>
+        <v>42.0290412902832</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>431500</v>
       </c>
       <c r="H261" t="n">
-        <v>42.31296539306641</v>
+        <v>42.31295776367188</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>844100</v>
       </c>
       <c r="H263" t="n">
-        <v>43.07312393188477</v>
+        <v>43.07312774658203</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>823800</v>
       </c>
       <c r="H264" t="n">
-        <v>42.40454483032227</v>
+        <v>42.404541015625</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -8662,7 +8662,7 @@
         <v>622100</v>
       </c>
       <c r="H265" t="n">
-        <v>42.91743087768555</v>
+        <v>42.91743469238281</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>827000</v>
       </c>
       <c r="H266" t="n">
-        <v>41.06737899780273</v>
+        <v>41.06738662719727</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>816200</v>
       </c>
       <c r="H268" t="n">
-        <v>42.17557907104492</v>
+        <v>42.17558288574219</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>867700</v>
       </c>
       <c r="H269" t="n">
-        <v>41.62605667114258</v>
+        <v>41.62606430053711</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>519900</v>
       </c>
       <c r="H274" t="n">
-        <v>41.51615524291992</v>
+        <v>41.51616287231445</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>750700</v>
       </c>
       <c r="H276" t="n">
-        <v>41.96493148803711</v>
+        <v>41.96492767333984</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>697500</v>
       </c>
       <c r="H277" t="n">
-        <v>41.87334823608398</v>
+        <v>41.87334442138672</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -9065,7 +9065,7 @@
         <v>526400</v>
       </c>
       <c r="H278" t="n">
-        <v>42.29463958740234</v>
+        <v>42.29464721679688</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -9158,7 +9158,7 @@
         <v>701900</v>
       </c>
       <c r="H281" t="n">
-        <v>43.54022216796875</v>
+        <v>43.54021835327148</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>622100</v>
       </c>
       <c r="H282" t="n">
-        <v>43.40283966064453</v>
+        <v>43.40283203125</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>648400</v>
       </c>
       <c r="H284" t="n">
-        <v>43.33872604370117</v>
+        <v>43.33872222900391</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -9282,7 +9282,7 @@
         <v>650900</v>
       </c>
       <c r="H285" t="n">
-        <v>42.52360534667969</v>
+        <v>42.52360916137695</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>2373400</v>
       </c>
       <c r="H287" t="n">
-        <v>42.90827178955078</v>
+        <v>42.90827560424805</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -9375,7 +9375,7 @@
         <v>784300</v>
       </c>
       <c r="H288" t="n">
-        <v>44.0531005859375</v>
+        <v>44.05310440063477</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>2524800</v>
       </c>
       <c r="H289" t="n">
-        <v>39.87675857543945</v>
+        <v>39.87675476074219</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>1381800</v>
       </c>
       <c r="H294" t="n">
-        <v>39.80348968505859</v>
+        <v>39.80349349975586</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -9623,7 +9623,7 @@
         <v>759200</v>
       </c>
       <c r="H296" t="n">
-        <v>40.16067123413086</v>
+        <v>40.16067886352539</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>716400</v>
       </c>
       <c r="H297" t="n">
-        <v>40.80178070068359</v>
+        <v>40.80178451538086</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>656200</v>
       </c>
       <c r="H298" t="n">
-        <v>40.81094360351562</v>
+        <v>40.81093978881836</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>705100</v>
       </c>
       <c r="H299" t="n">
-        <v>40.92084503173828</v>
+        <v>40.92084884643555</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -9747,7 +9747,7 @@
         <v>615100</v>
       </c>
       <c r="H300" t="n">
-        <v>40.0507698059082</v>
+        <v>40.05077743530273</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -9871,7 +9871,7 @@
         <v>688100</v>
       </c>
       <c r="H304" t="n">
-        <v>39.41882705688477</v>
+        <v>39.4188232421875</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         <v>640600</v>
       </c>
       <c r="H305" t="n">
-        <v>38.76856994628906</v>
+        <v>38.7685661315918</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>719900</v>
       </c>
       <c r="H306" t="n">
-        <v>37.65120697021484</v>
+        <v>37.65121078491211</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -9995,7 +9995,7 @@
         <v>1466300</v>
       </c>
       <c r="H308" t="n">
-        <v>36.99178695678711</v>
+        <v>36.99178314208984</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -10057,7 +10057,7 @@
         <v>1251600</v>
       </c>
       <c r="H310" t="n">
-        <v>38.4388542175293</v>
+        <v>38.43885040283203</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>802700</v>
       </c>
       <c r="H311" t="n">
-        <v>38.21904373168945</v>
+        <v>38.21903991699219</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -10119,7 +10119,7 @@
         <v>1671700</v>
       </c>
       <c r="H312" t="n">
-        <v>39.21733093261719</v>
+        <v>39.21733474731445</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>873700</v>
       </c>
       <c r="H313" t="n">
-        <v>39.7210578918457</v>
+        <v>39.72106170654297</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -10243,7 +10243,7 @@
         <v>1198400</v>
       </c>
       <c r="H316" t="n">
-        <v>38.29231262207031</v>
+        <v>38.29231643676758</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -10274,7 +10274,7 @@
         <v>1838000</v>
       </c>
       <c r="H317" t="n">
-        <v>37.53215026855469</v>
+        <v>37.53214645385742</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>2096600</v>
       </c>
       <c r="H318" t="n">
-        <v>38.05033111572266</v>
+        <v>38.05033493041992</v>
       </c>
       <c r="I318" t="n">
         <v>0.42</v>
@@ -10336,7 +10336,7 @@
         <v>1278400</v>
       </c>
       <c r="H319" t="n">
-        <v>38.37421798706055</v>
+        <v>38.37421035766602</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -10398,7 +10398,7 @@
         <v>34795400</v>
       </c>
       <c r="H321" t="n">
-        <v>35.19100952148438</v>
+        <v>35.19101333618164</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -10460,7 +10460,7 @@
         <v>2064000</v>
       </c>
       <c r="H323" t="n">
-        <v>35.52413177490234</v>
+        <v>35.52413558959961</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>2007500</v>
       </c>
       <c r="H324" t="n">
-        <v>36.51425552368164</v>
+        <v>36.51425933837891</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>910300</v>
       </c>
       <c r="H326" t="n">
-        <v>36.94917297363281</v>
+        <v>36.94917678833008</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>826600</v>
       </c>
       <c r="H327" t="n">
-        <v>37.34708023071289</v>
+        <v>37.34707641601562</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -10646,7 +10646,7 @@
         <v>1033600</v>
       </c>
       <c r="H329" t="n">
-        <v>37.65243911743164</v>
+        <v>37.65243530273438</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>952900</v>
       </c>
       <c r="H330" t="n">
-        <v>38.08735656738281</v>
+        <v>38.08735275268555</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>977600</v>
       </c>
       <c r="H335" t="n">
-        <v>38.82763671875</v>
+        <v>38.82763290405273</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -10863,7 +10863,7 @@
         <v>919400</v>
       </c>
       <c r="H336" t="n">
-        <v>38.67032241821289</v>
+        <v>38.67031860351562</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>796300</v>
       </c>
       <c r="H337" t="n">
-        <v>38.6425666809082</v>
+        <v>38.64255905151367</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>1349000</v>
       </c>
       <c r="H340" t="n">
-        <v>38.38346481323242</v>
+        <v>38.38346862792969</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -11018,7 +11018,7 @@
         <v>1044300</v>
       </c>
       <c r="H341" t="n">
-        <v>37.68019866943359</v>
+        <v>37.68020248413086</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -11049,7 +11049,7 @@
         <v>825100</v>
       </c>
       <c r="H342" t="n">
-        <v>37.33782196044922</v>
+        <v>37.33781814575195</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>1732000</v>
       </c>
       <c r="H345" t="n">
-        <v>36.838134765625</v>
+        <v>36.83812713623047</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -11173,7 +11173,7 @@
         <v>2115900</v>
       </c>
       <c r="H346" t="n">
-        <v>37.19902420043945</v>
+        <v>37.19902038574219</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -11266,7 +11266,7 @@
         <v>2189700</v>
       </c>
       <c r="H349" t="n">
-        <v>35.73696899414062</v>
+        <v>35.73696517944336</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -11359,7 +11359,7 @@
         <v>1688900</v>
       </c>
       <c r="H352" t="n">
-        <v>36.31993865966797</v>
+        <v>36.31993103027344</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>1508200</v>
       </c>
       <c r="H355" t="n">
-        <v>34.61729431152344</v>
+        <v>34.61729049682617</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>1977100</v>
       </c>
       <c r="H357" t="n">
-        <v>36.15337753295898</v>
+        <v>36.15337371826172</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -11576,7 +11576,7 @@
         <v>1152600</v>
       </c>
       <c r="H359" t="n">
-        <v>35.37607574462891</v>
+        <v>35.37607955932617</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <v>1070900</v>
       </c>
       <c r="H361" t="n">
-        <v>36.24591064453125</v>
+        <v>36.24590301513672</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -11669,7 +11669,7 @@
         <v>1098500</v>
       </c>
       <c r="H362" t="n">
-        <v>36.51425552368164</v>
+        <v>36.51425933837891</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>1215200</v>
       </c>
       <c r="H366" t="n">
-        <v>33.55314636230469</v>
+        <v>33.55313873291016</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -11917,7 +11917,7 @@
         <v>1098100</v>
       </c>
       <c r="H370" t="n">
-        <v>33.71045303344727</v>
+        <v>33.71045684814453</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -11948,7 +11948,7 @@
         <v>989400</v>
       </c>
       <c r="H371" t="n">
-        <v>34.82087707519531</v>
+        <v>34.82087326049805</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -12010,7 +12010,7 @@
         <v>1078000</v>
       </c>
       <c r="H373" t="n">
-        <v>34.5155029296875</v>
+        <v>34.51550674438477</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -12041,7 +12041,7 @@
         <v>1611600</v>
       </c>
       <c r="H374" t="n">
-        <v>33.11823654174805</v>
+        <v>33.11822891235352</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -12072,7 +12072,7 @@
         <v>1394200</v>
       </c>
       <c r="H375" t="n">
-        <v>33.85851287841797</v>
+        <v>33.85850524902344</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -12258,7 +12258,7 @@
         <v>1384100</v>
       </c>
       <c r="H381" t="n">
-        <v>34.54730606079102</v>
+        <v>34.54730224609375</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -12320,7 +12320,7 @@
         <v>3373100</v>
       </c>
       <c r="H383" t="n">
-        <v>34.62220001220703</v>
+        <v>34.6222038269043</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>987200</v>
       </c>
       <c r="H384" t="n">
-        <v>34.02300643920898</v>
+        <v>34.02301025390625</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -12413,7 +12413,7 @@
         <v>859800</v>
       </c>
       <c r="H386" t="n">
-        <v>33.48935317993164</v>
+        <v>33.48934936523438</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -12444,7 +12444,7 @@
         <v>778900</v>
       </c>
       <c r="H387" t="n">
-        <v>33.6391487121582</v>
+        <v>33.63915252685547</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -12475,7 +12475,7 @@
         <v>1097300</v>
       </c>
       <c r="H388" t="n">
-        <v>33.67660140991211</v>
+        <v>33.67659759521484</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -12599,7 +12599,7 @@
         <v>1675100</v>
       </c>
       <c r="H392" t="n">
-        <v>32.58119964599609</v>
+        <v>32.58119583129883</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -12630,7 +12630,7 @@
         <v>1781500</v>
       </c>
       <c r="H393" t="n">
-        <v>33.2646484375</v>
+        <v>33.26464462280273</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -12661,7 +12661,7 @@
         <v>880500</v>
       </c>
       <c r="H394" t="n">
-        <v>33.53616333007812</v>
+        <v>33.53615951538086</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -12692,7 +12692,7 @@
         <v>933000</v>
       </c>
       <c r="H395" t="n">
-        <v>33.04932022094727</v>
+        <v>33.04931640625</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -12723,7 +12723,7 @@
         <v>1160800</v>
       </c>
       <c r="H396" t="n">
-        <v>33.39572906494141</v>
+        <v>33.39572525024414</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -12754,7 +12754,7 @@
         <v>3341600</v>
       </c>
       <c r="H397" t="n">
-        <v>32.68418502807617</v>
+        <v>32.68418121337891</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -12785,7 +12785,7 @@
         <v>1091200</v>
       </c>
       <c r="H398" t="n">
-        <v>33.32082748413086</v>
+        <v>33.32082366943359</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -12816,7 +12816,7 @@
         <v>1137400</v>
       </c>
       <c r="H399" t="n">
-        <v>33.65787506103516</v>
+        <v>33.65787124633789</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -12847,7 +12847,7 @@
         <v>1176900</v>
       </c>
       <c r="H400" t="n">
-        <v>33.42381286621094</v>
+        <v>33.4238166809082</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -12878,7 +12878,7 @@
         <v>634200</v>
       </c>
       <c r="H401" t="n">
-        <v>33.48935317993164</v>
+        <v>33.48934936523438</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -12909,7 +12909,7 @@
         <v>623400</v>
       </c>
       <c r="H402" t="n">
-        <v>33.58297729492188</v>
+        <v>33.58297348022461</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -12940,7 +12940,7 @@
         <v>1202400</v>
       </c>
       <c r="H403" t="n">
-        <v>33.57361221313477</v>
+        <v>33.57361602783203</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -12971,7 +12971,7 @@
         <v>985600</v>
       </c>
       <c r="H404" t="n">
-        <v>34.74391555786133</v>
+        <v>34.74391174316406</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>819400</v>
       </c>
       <c r="H405" t="n">
-        <v>35.08096313476562</v>
+        <v>35.08095932006836</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>1486100</v>
       </c>
       <c r="H406" t="n">
-        <v>34.25707244873047</v>
+        <v>34.25706481933594</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -13095,7 +13095,7 @@
         <v>1400900</v>
       </c>
       <c r="H408" t="n">
-        <v>34.80945205688477</v>
+        <v>34.80945587158203</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -13126,7 +13126,7 @@
         <v>1219600</v>
       </c>
       <c r="H409" t="n">
-        <v>33.9761962890625</v>
+        <v>33.97620010375977</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -13219,7 +13219,7 @@
         <v>4924900</v>
       </c>
       <c r="H412" t="n">
-        <v>33.35828018188477</v>
+        <v>33.3582763671875</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -13281,7 +13281,7 @@
         <v>2121600</v>
       </c>
       <c r="H414" t="n">
-        <v>35.89548873901367</v>
+        <v>35.89549255371094</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -13312,7 +13312,7 @@
         <v>2749000</v>
       </c>
       <c r="H415" t="n">
-        <v>35.69887924194336</v>
+        <v>35.69888305664062</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -13374,7 +13374,7 @@
         <v>1404200</v>
       </c>
       <c r="H417" t="n">
-        <v>34.87498474121094</v>
+        <v>34.8749885559082</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <v>1067500</v>
       </c>
       <c r="H418" t="n">
-        <v>34.57538986206055</v>
+        <v>34.57539367675781</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -13436,7 +13436,7 @@
         <v>1063900</v>
       </c>
       <c r="H419" t="n">
-        <v>33.85448837280273</v>
+        <v>33.8544807434082</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -13622,7 +13622,7 @@
         <v>1074800</v>
       </c>
       <c r="H425" t="n">
-        <v>34.84690475463867</v>
+        <v>34.84690093994141</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>1054200</v>
       </c>
       <c r="H427" t="n">
-        <v>34.65029144287109</v>
+        <v>34.65028762817383</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -13715,7 +13715,7 @@
         <v>760000</v>
       </c>
       <c r="H428" t="n">
-        <v>34.65029144287109</v>
+        <v>34.65028762817383</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -13746,7 +13746,7 @@
         <v>827900</v>
       </c>
       <c r="H429" t="n">
-        <v>34.14472198486328</v>
+        <v>34.14471817016602</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -13777,7 +13777,7 @@
         <v>796000</v>
       </c>
       <c r="H430" t="n">
-        <v>35.24948501586914</v>
+        <v>35.24948883056641</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -13808,7 +13808,7 @@
         <v>989800</v>
       </c>
       <c r="H431" t="n">
-        <v>36.43850708007812</v>
+        <v>36.43851089477539</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -13839,7 +13839,7 @@
         <v>1127800</v>
       </c>
       <c r="H432" t="n">
-        <v>37.27176666259766</v>
+        <v>37.27177047729492</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -13870,7 +13870,7 @@
         <v>1065400</v>
       </c>
       <c r="H433" t="n">
-        <v>36.67257308959961</v>
+        <v>36.67256546020508</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>858000</v>
       </c>
       <c r="H434" t="n">
-        <v>36.14827728271484</v>
+        <v>36.14828109741211</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>814100</v>
       </c>
       <c r="H436" t="n">
-        <v>36.1670036315918</v>
+        <v>36.16699981689453</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -14056,7 +14056,7 @@
         <v>622100</v>
       </c>
       <c r="H439" t="n">
-        <v>36.33552169799805</v>
+        <v>36.33552551269531</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -14087,7 +14087,7 @@
         <v>820500</v>
       </c>
       <c r="H440" t="n">
-        <v>36.13890838623047</v>
+        <v>36.13891220092773</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -14180,7 +14180,7 @@
         <v>2193400</v>
       </c>
       <c r="H443" t="n">
-        <v>32.57454299926758</v>
+        <v>32.57454681396484</v>
       </c>
       <c r="I443" t="n">
         <v>0.44</v>
@@ -14242,7 +14242,7 @@
         <v>2180200</v>
       </c>
       <c r="H445" t="n">
-        <v>31.64573860168457</v>
+        <v>31.64574241638184</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -14335,7 +14335,7 @@
         <v>1133200</v>
       </c>
       <c r="H448" t="n">
-        <v>32.78305816650391</v>
+        <v>32.78305435180664</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -14459,7 +14459,7 @@
         <v>740700</v>
       </c>
       <c r="H452" t="n">
-        <v>33.67394638061523</v>
+        <v>33.6739501953125</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -14490,7 +14490,7 @@
         <v>981900</v>
       </c>
       <c r="H453" t="n">
-        <v>32.84939575195312</v>
+        <v>32.84939956665039</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -14738,7 +14738,7 @@
         <v>712500</v>
       </c>
       <c r="H461" t="n">
-        <v>35.06715774536133</v>
+        <v>35.06716156005859</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -14862,7 +14862,7 @@
         <v>524900</v>
       </c>
       <c r="H465" t="n">
-        <v>35.02925109863281</v>
+        <v>35.02924346923828</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -14893,7 +14893,7 @@
         <v>958500</v>
       </c>
       <c r="H466" t="n">
-        <v>35.92014312744141</v>
+        <v>35.92014694213867</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -14924,7 +14924,7 @@
         <v>756800</v>
       </c>
       <c r="H467" t="n">
-        <v>36.32768249511719</v>
+        <v>36.32768630981445</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -15172,7 +15172,7 @@
         <v>1625300</v>
       </c>
       <c r="H475" t="n">
-        <v>37.40812683105469</v>
+        <v>37.40813064575195</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -15203,7 +15203,7 @@
         <v>1503100</v>
       </c>
       <c r="H476" t="n">
-        <v>37.61663818359375</v>
+        <v>37.61663436889648</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -15265,7 +15265,7 @@
         <v>1007600</v>
       </c>
       <c r="H478" t="n">
-        <v>38.42223358154297</v>
+        <v>38.42223739624023</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -15327,7 +15327,7 @@
         <v>774500</v>
       </c>
       <c r="H480" t="n">
-        <v>38.393798828125</v>
+        <v>38.39379501342773</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -15389,7 +15389,7 @@
         <v>653300</v>
       </c>
       <c r="H482" t="n">
-        <v>38.82028961181641</v>
+        <v>38.82029342651367</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -15451,7 +15451,7 @@
         <v>475000</v>
       </c>
       <c r="H484" t="n">
-        <v>39.32260894775391</v>
+        <v>39.32260513305664</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -15513,7 +15513,7 @@
         <v>743100</v>
       </c>
       <c r="H486" t="n">
-        <v>39.45529174804688</v>
+        <v>39.45529556274414</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -15575,7 +15575,7 @@
         <v>549200</v>
       </c>
       <c r="H488" t="n">
-        <v>39.18043899536133</v>
+        <v>39.18044281005859</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -15606,7 +15606,7 @@
         <v>491000</v>
       </c>
       <c r="H489" t="n">
-        <v>38.83924865722656</v>
+        <v>38.8392448425293</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -15637,7 +15637,7 @@
         <v>978200</v>
       </c>
       <c r="H490" t="n">
-        <v>37.51238632202148</v>
+        <v>37.51238250732422</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>810200</v>
       </c>
       <c r="H491" t="n">
-        <v>37.59767532348633</v>
+        <v>37.59767913818359</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -15699,7 +15699,7 @@
         <v>726600</v>
       </c>
       <c r="H492" t="n">
-        <v>37.49342346191406</v>
+        <v>37.49342727661133</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -15792,7 +15792,7 @@
         <v>758500</v>
       </c>
       <c r="H495" t="n">
-        <v>37.33230590820312</v>
+        <v>37.33230209350586</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -15823,7 +15823,7 @@
         <v>680800</v>
       </c>
       <c r="H496" t="n">
-        <v>36.71626663208008</v>
+        <v>36.71626281738281</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -15916,7 +15916,7 @@
         <v>593600</v>
       </c>
       <c r="H499" t="n">
-        <v>35.74006652832031</v>
+        <v>35.74006271362305</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -16009,7 +16009,7 @@
         <v>628900</v>
       </c>
       <c r="H502" t="n">
-        <v>35.9959602355957</v>
+        <v>35.99596405029297</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -16040,7 +16040,7 @@
         <v>539100</v>
       </c>
       <c r="H503" t="n">
-        <v>36.71626663208008</v>
+        <v>36.71626281738281</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -16071,7 +16071,7 @@
         <v>700400</v>
       </c>
       <c r="H504" t="n">
-        <v>37.076416015625</v>
+        <v>37.07641220092773</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -16102,7 +16102,7 @@
         <v>744300</v>
       </c>
       <c r="H505" t="n">
-        <v>35.91066360473633</v>
+        <v>35.91066741943359</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -16133,7 +16133,7 @@
         <v>862600</v>
       </c>
       <c r="H506" t="n">
-        <v>35.30655670166016</v>
+        <v>35.30656051635742</v>
       </c>
       <c r="I506" t="n">
         <v>0.44</v>
@@ -16164,7 +16164,7 @@
         <v>861900</v>
       </c>
       <c r="H507" t="n">
-        <v>35.23944091796875</v>
+        <v>35.23943710327148</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -16226,7 +16226,7 @@
         <v>725000</v>
       </c>
       <c r="H509" t="n">
-        <v>35.51751708984375</v>
+        <v>35.51752090454102</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -16288,7 +16288,7 @@
         <v>538500</v>
       </c>
       <c r="H511" t="n">
-        <v>34.31890106201172</v>
+        <v>34.31889724731445</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -16381,7 +16381,7 @@
         <v>1108600</v>
       </c>
       <c r="H514" t="n">
-        <v>31.97919082641602</v>
+        <v>31.97918891906738</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -16412,7 +16412,7 @@
         <v>916900</v>
       </c>
       <c r="H515" t="n">
-        <v>32.01754379272461</v>
+        <v>32.01754760742188</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -16474,7 +16474,7 @@
         <v>715700</v>
       </c>
       <c r="H517" t="n">
-        <v>32.13261413574219</v>
+        <v>32.13261032104492</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -16505,7 +16505,7 @@
         <v>788800</v>
       </c>
       <c r="H518" t="n">
-        <v>31.85453224182129</v>
+        <v>31.85453605651855</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -16567,7 +16567,7 @@
         <v>703800</v>
       </c>
       <c r="H520" t="n">
-        <v>34.09835433959961</v>
+        <v>34.09835052490234</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -16598,7 +16598,7 @@
         <v>569500</v>
       </c>
       <c r="H521" t="n">
-        <v>33.67643356323242</v>
+        <v>33.67643737792969</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -16815,7 +16815,7 @@
         <v>883800</v>
       </c>
       <c r="H528" t="n">
-        <v>30.59837913513184</v>
+        <v>30.59838104248047</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -17032,7 +17032,7 @@
         <v>878800</v>
       </c>
       <c r="H535" t="n">
-        <v>31.48056793212891</v>
+        <v>31.48056602478027</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -17094,7 +17094,7 @@
         <v>964100</v>
       </c>
       <c r="H537" t="n">
-        <v>31.54768753051758</v>
+        <v>31.54768562316895</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -17156,7 +17156,7 @@
         <v>2255000</v>
       </c>
       <c r="H539" t="n">
-        <v>32.36274337768555</v>
+        <v>32.36275100708008</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -17187,7 +17187,7 @@
         <v>1349800</v>
       </c>
       <c r="H540" t="n">
-        <v>31.93124580383301</v>
+        <v>31.93124198913574</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -17218,7 +17218,7 @@
         <v>826400</v>
       </c>
       <c r="H541" t="n">
-        <v>30.93399047851562</v>
+        <v>30.93399238586426</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -17528,7 +17528,7 @@
         <v>1057400</v>
       </c>
       <c r="H551" t="n">
-        <v>33.20658111572266</v>
+        <v>33.20657730102539</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -17559,7 +17559,7 @@
         <v>644700</v>
       </c>
       <c r="H552" t="n">
-        <v>33.03397369384766</v>
+        <v>33.03397750854492</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -17621,7 +17621,7 @@
         <v>632400</v>
       </c>
       <c r="H554" t="n">
-        <v>33.46548080444336</v>
+        <v>33.46547698974609</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -17652,7 +17652,7 @@
         <v>815700</v>
       </c>
       <c r="H555" t="n">
-        <v>34.20383071899414</v>
+        <v>34.20382690429688</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -17838,7 +17838,7 @@
         <v>702900</v>
       </c>
       <c r="H561" t="n">
-        <v>34.27095031738281</v>
+        <v>34.27095413208008</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -17869,7 +17869,7 @@
         <v>622000</v>
       </c>
       <c r="H562" t="n">
-        <v>33.85862731933594</v>
+        <v>33.8586311340332</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -18055,7 +18055,7 @@
         <v>1893900</v>
       </c>
       <c r="H568" t="n">
-        <v>32.161376953125</v>
+        <v>32.16138458251953</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -23824,6 +23824,37 @@
         <v>26.85000038146973</v>
       </c>
       <c r="I754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>leg</t>
+        </is>
+      </c>
+      <c r="B755" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C755" t="n">
+        <v>26.79999923706055</v>
+      </c>
+      <c r="D755" t="n">
+        <v>26.95999908447266</v>
+      </c>
+      <c r="E755" t="n">
+        <v>26.78499984741211</v>
+      </c>
+      <c r="F755" t="n">
+        <v>26.94000053405762</v>
+      </c>
+      <c r="G755" t="n">
+        <v>38521</v>
+      </c>
+      <c r="H755" t="n">
+        <v>26.94000053405762</v>
+      </c>
+      <c r="I755" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/leg_historical_prices.xlsx
+++ b/data/leg_historical_prices.xlsx
@@ -509,7 +509,7 @@
         <v>1079500</v>
       </c>
       <c r="H2" t="n">
-        <v>39.48090362548828</v>
+        <v>39.48089981079102</v>
       </c>
       <c r="I2" t="n">
         <v>0.4</v>
@@ -633,7 +633,7 @@
         <v>4270700</v>
       </c>
       <c r="H6" t="n">
-        <v>38.98551177978516</v>
+        <v>38.98550415039062</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>764400</v>
       </c>
       <c r="H11" t="n">
-        <v>36.27854919433594</v>
+        <v>36.27854537963867</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>834800</v>
       </c>
       <c r="H12" t="n">
-        <v>37.28702545166016</v>
+        <v>37.28702926635742</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>667500</v>
       </c>
       <c r="H13" t="n">
-        <v>36.02201461791992</v>
+        <v>36.02200317382812</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>832200</v>
       </c>
       <c r="H14" t="n">
-        <v>36.42008209228516</v>
+        <v>36.42009353637695</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>813600</v>
       </c>
       <c r="H15" t="n">
-        <v>36.8447151184082</v>
+        <v>36.84470748901367</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>467800</v>
       </c>
       <c r="H17" t="n">
-        <v>38.38396072387695</v>
+        <v>38.38396453857422</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>700000</v>
       </c>
       <c r="H18" t="n">
-        <v>37.41971206665039</v>
+        <v>37.41971588134766</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>649500</v>
       </c>
       <c r="H20" t="n">
-        <v>39.12704467773438</v>
+        <v>39.12705230712891</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>717300</v>
       </c>
       <c r="H22" t="n">
-        <v>39.79936981201172</v>
+        <v>39.79936599731445</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>696800</v>
       </c>
       <c r="H25" t="n">
-        <v>40.39206695556641</v>
+        <v>40.39207077026367</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>685700</v>
       </c>
       <c r="H27" t="n">
-        <v>39.06512832641602</v>
+        <v>39.06511688232422</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>477500</v>
       </c>
       <c r="H28" t="n">
-        <v>39.15358734130859</v>
+        <v>39.15358352661133</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>506800</v>
       </c>
       <c r="H29" t="n">
-        <v>38.75551223754883</v>
+        <v>38.75550842285156</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>600300</v>
       </c>
       <c r="H31" t="n">
-        <v>39.31282424926758</v>
+        <v>39.31281280517578</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>954700</v>
       </c>
       <c r="H32" t="n">
-        <v>38.20703887939453</v>
+        <v>38.20703506469727</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>848900</v>
       </c>
       <c r="H33" t="n">
-        <v>37.16317367553711</v>
+        <v>37.16316986083984</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>937000</v>
       </c>
       <c r="H34" t="n">
-        <v>35.9423942565918</v>
+        <v>35.94239044189453</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>4065100</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91548538208008</v>
+        <v>36.91547775268555</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>1021500</v>
       </c>
       <c r="H37" t="n">
-        <v>38.49896240234375</v>
+        <v>38.49896621704102</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>2430200</v>
       </c>
       <c r="H38" t="n">
-        <v>36.6943244934082</v>
+        <v>36.69432830810547</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>1162300</v>
       </c>
       <c r="H39" t="n">
-        <v>36.81816864013672</v>
+        <v>36.81816482543945</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>1129900</v>
       </c>
       <c r="H41" t="n">
-        <v>35.97777557373047</v>
+        <v>35.97777938842773</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>1182900</v>
       </c>
       <c r="H42" t="n">
-        <v>36.9774055480957</v>
+        <v>36.97740936279297</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>1227300</v>
       </c>
       <c r="H45" t="n">
-        <v>35.37622833251953</v>
+        <v>35.3762321472168</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>1097700</v>
       </c>
       <c r="H46" t="n">
-        <v>37.03932952880859</v>
+        <v>37.03932189941406</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>1028700</v>
       </c>
       <c r="H47" t="n">
-        <v>37.96818542480469</v>
+        <v>37.96818923950195</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>790700</v>
       </c>
       <c r="H48" t="n">
-        <v>37.82664489746094</v>
+        <v>37.8266487121582</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>619700</v>
       </c>
       <c r="H49" t="n">
-        <v>37.64971923828125</v>
+        <v>37.64972305297852</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>696100</v>
       </c>
       <c r="H50" t="n">
-        <v>38.26011276245117</v>
+        <v>38.26011657714844</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>351900</v>
       </c>
       <c r="H55" t="n">
-        <v>39.1889762878418</v>
+        <v>39.18897247314453</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>910500</v>
       </c>
       <c r="H56" t="n">
-        <v>38.12741470336914</v>
+        <v>38.12742233276367</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>894300</v>
       </c>
       <c r="H57" t="n">
-        <v>37.86203384399414</v>
+        <v>37.86203002929688</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>523100</v>
       </c>
       <c r="H58" t="n">
-        <v>37.75587844848633</v>
+        <v>37.75588226318359</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>807100</v>
       </c>
       <c r="H59" t="n">
-        <v>39.16242599487305</v>
+        <v>39.16243362426758</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>590300</v>
       </c>
       <c r="H60" t="n">
-        <v>39.4897346496582</v>
+        <v>39.48974609375</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>470200</v>
       </c>
       <c r="H61" t="n">
-        <v>39.0385856628418</v>
+        <v>39.03858947753906</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>1475800</v>
       </c>
       <c r="H62" t="n">
-        <v>37.59664154052734</v>
+        <v>37.59664535522461</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>2191500</v>
       </c>
       <c r="H63" t="n">
-        <v>36.9420166015625</v>
+        <v>36.94202423095703</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>695900</v>
       </c>
       <c r="H65" t="n">
-        <v>36.42008209228516</v>
+        <v>36.42009353637695</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>1102500</v>
       </c>
       <c r="H67" t="n">
-        <v>36.97394180297852</v>
+        <v>36.97393417358398</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1590800</v>
       </c>
       <c r="H69" t="n">
-        <v>37.3491325378418</v>
+        <v>37.34912872314453</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>2332300</v>
       </c>
       <c r="H70" t="n">
-        <v>37.2955322265625</v>
+        <v>37.29552459716797</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>859100</v>
       </c>
       <c r="H71" t="n">
-        <v>36.59874725341797</v>
+        <v>36.5987548828125</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>725900</v>
       </c>
       <c r="H72" t="n">
-        <v>36.88460540771484</v>
+        <v>36.88461303710938</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>890000</v>
       </c>
       <c r="H73" t="n">
-        <v>37.42059326171875</v>
+        <v>37.42059707641602</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>568200</v>
       </c>
       <c r="H74" t="n">
-        <v>37.9476432800293</v>
+        <v>37.94763946533203</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>980500</v>
       </c>
       <c r="H76" t="n">
-        <v>38.16203308105469</v>
+        <v>38.16204452514648</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>1299200</v>
       </c>
       <c r="H77" t="n">
-        <v>39.52879333496094</v>
+        <v>39.5287971496582</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>1167500</v>
       </c>
       <c r="H78" t="n">
-        <v>39.57346343994141</v>
+        <v>39.57345962524414</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>1802500</v>
       </c>
       <c r="H79" t="n">
-        <v>38.71588897705078</v>
+        <v>38.71588516235352</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>1584500</v>
       </c>
       <c r="H81" t="n">
-        <v>40.03798294067383</v>
+        <v>40.03797912597656</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>813400</v>
       </c>
       <c r="H82" t="n">
-        <v>40.16304016113281</v>
+        <v>40.16304397583008</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>803600</v>
       </c>
       <c r="H83" t="n">
-        <v>39.42159652709961</v>
+        <v>39.42160034179688</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>881900</v>
       </c>
       <c r="H84" t="n">
-        <v>39.19827270507812</v>
+        <v>39.19826889038086</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>1215400</v>
       </c>
       <c r="H85" t="n">
-        <v>39.85038757324219</v>
+        <v>39.85039138793945</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>958700</v>
       </c>
       <c r="H86" t="n">
-        <v>39.18933486938477</v>
+        <v>39.18933868408203</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>752300</v>
       </c>
       <c r="H89" t="n">
-        <v>38.96601104736328</v>
+        <v>38.96601486206055</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>743900</v>
       </c>
       <c r="H90" t="n">
-        <v>39.50199890136719</v>
+        <v>39.50200271606445</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>827700</v>
       </c>
       <c r="H91" t="n">
-        <v>39.86825561523438</v>
+        <v>39.86825180053711</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>926800</v>
       </c>
       <c r="H92" t="n">
-        <v>39.47519302368164</v>
+        <v>39.47520065307617</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>797700</v>
       </c>
       <c r="H93" t="n">
-        <v>38.49256134033203</v>
+        <v>38.4925537109375</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>2664700</v>
       </c>
       <c r="H97" t="n">
-        <v>36.62554931640625</v>
+        <v>36.62555313110352</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>729600</v>
       </c>
       <c r="H99" t="n">
-        <v>37.80471801757812</v>
+        <v>37.80471038818359</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>800500</v>
       </c>
       <c r="H100" t="n">
-        <v>37.92084121704102</v>
+        <v>37.92084503173828</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>1044100</v>
       </c>
       <c r="H101" t="n">
-        <v>38.05483245849609</v>
+        <v>38.05483627319336</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>1012800</v>
       </c>
       <c r="H102" t="n">
-        <v>38.43002700805664</v>
+        <v>38.43003082275391</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>1367900</v>
       </c>
       <c r="H104" t="n">
-        <v>38.4389533996582</v>
+        <v>38.43896484375</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>1257800</v>
       </c>
       <c r="H105" t="n">
-        <v>37.76898193359375</v>
+        <v>37.76897811889648</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>886500</v>
       </c>
       <c r="H106" t="n">
-        <v>38.30497360229492</v>
+        <v>38.30496215820312</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>661200</v>
       </c>
       <c r="H109" t="n">
-        <v>37.2955322265625</v>
+        <v>37.29552459716797</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>683200</v>
       </c>
       <c r="H111" t="n">
-        <v>38.37643051147461</v>
+        <v>38.37642669677734</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>846600</v>
       </c>
       <c r="H113" t="n">
-        <v>38.7426872253418</v>
+        <v>38.74268341064453</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -3981,7 +3981,7 @@
         <v>739000</v>
       </c>
       <c r="H114" t="n">
-        <v>39.72532653808594</v>
+        <v>39.72532272338867</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>855200</v>
       </c>
       <c r="H115" t="n">
-        <v>38.32283401489258</v>
+        <v>38.32282638549805</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>960500</v>
       </c>
       <c r="H117" t="n">
-        <v>39.35013580322266</v>
+        <v>39.35013198852539</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>1019900</v>
       </c>
       <c r="H118" t="n">
-        <v>40.12730407714844</v>
+        <v>40.1273078918457</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>1438400</v>
       </c>
       <c r="H120" t="n">
-        <v>39.48413467407227</v>
+        <v>39.484130859375</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1167800</v>
       </c>
       <c r="H121" t="n">
-        <v>42.28911590576172</v>
+        <v>42.28910827636719</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>1287100</v>
       </c>
       <c r="H123" t="n">
-        <v>42.54817199707031</v>
+        <v>42.54816818237305</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -4322,7 +4322,7 @@
         <v>1041200</v>
       </c>
       <c r="H125" t="n">
-        <v>43.21814727783203</v>
+        <v>43.2181510925293</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>1205500</v>
       </c>
       <c r="H133" t="n">
-        <v>39.750244140625</v>
+        <v>39.75024795532227</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -4632,7 +4632,7 @@
         <v>1359600</v>
       </c>
       <c r="H135" t="n">
-        <v>41.40763473510742</v>
+        <v>41.40763092041016</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         <v>820900</v>
       </c>
       <c r="H136" t="n">
-        <v>41.88504028320312</v>
+        <v>41.88503265380859</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -4694,7 +4694,7 @@
         <v>1001000</v>
       </c>
       <c r="H137" t="n">
-        <v>40.99328231811523</v>
+        <v>40.99328994750977</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>787100</v>
       </c>
       <c r="H138" t="n">
-        <v>41.60580062866211</v>
+        <v>41.60579681396484</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>752300</v>
       </c>
       <c r="H139" t="n">
-        <v>41.1193962097168</v>
+        <v>41.11940002441406</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>552500</v>
       </c>
       <c r="H140" t="n">
-        <v>41.83999633789062</v>
+        <v>41.83999252319336</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>578200</v>
       </c>
       <c r="H141" t="n">
-        <v>42.20029830932617</v>
+        <v>42.20029449462891</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>715100</v>
       </c>
       <c r="H144" t="n">
-        <v>41.88504028320312</v>
+        <v>41.88503265380859</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>449400</v>
       </c>
       <c r="H146" t="n">
-        <v>42.8308219909668</v>
+        <v>42.83082580566406</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>941400</v>
       </c>
       <c r="H147" t="n">
-        <v>42.44349670410156</v>
+        <v>42.44350051879883</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>611900</v>
       </c>
       <c r="H148" t="n">
-        <v>43.19113159179688</v>
+        <v>43.19112777709961</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>757800</v>
       </c>
       <c r="H149" t="n">
-        <v>43.57845306396484</v>
+        <v>43.57844924926758</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -5097,7 +5097,7 @@
         <v>691900</v>
       </c>
       <c r="H150" t="n">
-        <v>43.94775772094727</v>
+        <v>43.94776153564453</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>785500</v>
       </c>
       <c r="H152" t="n">
-        <v>43.94775772094727</v>
+        <v>43.94776153564453</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -5190,7 +5190,7 @@
         <v>879100</v>
       </c>
       <c r="H153" t="n">
-        <v>45.27186965942383</v>
+        <v>45.27186584472656</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>633900</v>
       </c>
       <c r="H155" t="n">
-        <v>45.48804473876953</v>
+        <v>45.48805236816406</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -5345,7 +5345,7 @@
         <v>440600</v>
       </c>
       <c r="H158" t="n">
-        <v>45.87537384033203</v>
+        <v>45.8753662109375</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>717500</v>
       </c>
       <c r="H159" t="n">
-        <v>45.52408218383789</v>
+        <v>45.52407836914062</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>946400</v>
       </c>
       <c r="H161" t="n">
-        <v>45.84835433959961</v>
+        <v>45.84834289550781</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -5500,7 +5500,7 @@
         <v>1430500</v>
       </c>
       <c r="H163" t="n">
-        <v>50.4151725769043</v>
+        <v>50.41516876220703</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -5562,7 +5562,7 @@
         <v>939600</v>
       </c>
       <c r="H165" t="n">
-        <v>51.82033920288086</v>
+        <v>51.82034301757812</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>928700</v>
       </c>
       <c r="H166" t="n">
-        <v>52.19866180419922</v>
+        <v>52.19866561889648</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>1184400</v>
       </c>
       <c r="H167" t="n">
-        <v>51.06371688842773</v>
+        <v>51.0637092590332</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>923200</v>
       </c>
       <c r="H168" t="n">
-        <v>49.09105682373047</v>
+        <v>49.09106063842773</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>767800</v>
       </c>
       <c r="H169" t="n">
-        <v>50.63134384155273</v>
+        <v>50.63135528564453</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>701000</v>
       </c>
       <c r="H171" t="n">
-        <v>50.46020889282227</v>
+        <v>50.4602165222168</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -5779,7 +5779,7 @@
         <v>714200</v>
       </c>
       <c r="H172" t="n">
-        <v>49.50540161132812</v>
+        <v>49.50540924072266</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>644500</v>
       </c>
       <c r="H173" t="n">
-        <v>48.88388824462891</v>
+        <v>48.88389205932617</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -5841,7 +5841,7 @@
         <v>454000</v>
       </c>
       <c r="H174" t="n">
-        <v>49.04602432250977</v>
+        <v>49.04602813720703</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>516700</v>
       </c>
       <c r="H176" t="n">
-        <v>49.09105682373047</v>
+        <v>49.09106063842773</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -5934,7 +5934,7 @@
         <v>527700</v>
       </c>
       <c r="H177" t="n">
-        <v>48.81182479858398</v>
+        <v>48.81182861328125</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>485800</v>
       </c>
       <c r="H178" t="n">
-        <v>49.13610076904297</v>
+        <v>49.13610458374023</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -5996,7 +5996,7 @@
         <v>954300</v>
       </c>
       <c r="H179" t="n">
-        <v>49.72159194946289</v>
+        <v>49.72158813476562</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>706400</v>
       </c>
       <c r="H181" t="n">
-        <v>50.17196655273438</v>
+        <v>50.17197036743164</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>853100</v>
       </c>
       <c r="H184" t="n">
-        <v>49.22617721557617</v>
+        <v>49.22618103027344</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -6182,7 +6182,7 @@
         <v>406600</v>
       </c>
       <c r="H185" t="n">
-        <v>49.24419403076172</v>
+        <v>49.24418640136719</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>387000</v>
       </c>
       <c r="H188" t="n">
-        <v>48.12725448608398</v>
+        <v>48.12725830078125</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -6337,7 +6337,7 @@
         <v>663300</v>
       </c>
       <c r="H190" t="n">
-        <v>47.3243522644043</v>
+        <v>47.32435607910156</v>
       </c>
       <c r="I190" t="n">
         <v>0.42</v>
@@ -6368,7 +6368,7 @@
         <v>632900</v>
       </c>
       <c r="H191" t="n">
-        <v>47.44236755371094</v>
+        <v>47.44236373901367</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>675600</v>
       </c>
       <c r="H192" t="n">
-        <v>46.34391021728516</v>
+        <v>46.34391403198242</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>864300</v>
       </c>
       <c r="H193" t="n">
-        <v>44.9821891784668</v>
+        <v>44.98219299316406</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -6461,7 +6461,7 @@
         <v>1482700</v>
       </c>
       <c r="H194" t="n">
-        <v>44.44658660888672</v>
+        <v>44.44658279418945</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>761300</v>
       </c>
       <c r="H196" t="n">
-        <v>45.93539428710938</v>
+        <v>45.93540191650391</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -6647,7 +6647,7 @@
         <v>840200</v>
       </c>
       <c r="H200" t="n">
-        <v>46.31667709350586</v>
+        <v>46.31668090820312</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -6678,7 +6678,7 @@
         <v>581300</v>
       </c>
       <c r="H201" t="n">
-        <v>46.52547454833984</v>
+        <v>46.52548217773438</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>1145500</v>
       </c>
       <c r="H202" t="n">
-        <v>47.03385543823242</v>
+        <v>47.03385925292969</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>1080500</v>
       </c>
       <c r="H203" t="n">
-        <v>46.97030258178711</v>
+        <v>46.97031021118164</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>514600</v>
       </c>
       <c r="H204" t="n">
-        <v>46.66165161132812</v>
+        <v>46.66164779663086</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>523900</v>
       </c>
       <c r="H205" t="n">
-        <v>45.81737899780273</v>
+        <v>45.81739044189453</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -6833,7 +6833,7 @@
         <v>588700</v>
       </c>
       <c r="H206" t="n">
-        <v>46.02618408203125</v>
+        <v>46.02617263793945</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -6895,7 +6895,7 @@
         <v>514700</v>
       </c>
       <c r="H208" t="n">
-        <v>46.1895866394043</v>
+        <v>46.18959045410156</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -6957,7 +6957,7 @@
         <v>714000</v>
       </c>
       <c r="H210" t="n">
-        <v>45.11836624145508</v>
+        <v>45.11836242675781</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -6988,7 +6988,7 @@
         <v>466100</v>
       </c>
       <c r="H211" t="n">
-        <v>44.93680191040039</v>
+        <v>44.93679809570312</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>472400</v>
       </c>
       <c r="H212" t="n">
-        <v>44.43750762939453</v>
+        <v>44.43750381469727</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>720500</v>
       </c>
       <c r="H213" t="n">
-        <v>43.80203247070312</v>
+        <v>43.80202865600586</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>572200</v>
       </c>
       <c r="H215" t="n">
-        <v>44.03806686401367</v>
+        <v>44.03805923461914</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>641700</v>
       </c>
       <c r="H216" t="n">
-        <v>44.13792419433594</v>
+        <v>44.1379280090332</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -7205,7 +7205,7 @@
         <v>574600</v>
       </c>
       <c r="H218" t="n">
-        <v>43.99267196655273</v>
+        <v>43.99267578125</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -7298,7 +7298,7 @@
         <v>664100</v>
       </c>
       <c r="H221" t="n">
-        <v>43.202880859375</v>
+        <v>43.20287704467773</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>803900</v>
       </c>
       <c r="H222" t="n">
-        <v>44.12885284423828</v>
+        <v>44.12884521484375</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>1249200</v>
       </c>
       <c r="H224" t="n">
-        <v>43.6204719543457</v>
+        <v>43.62046432495117</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1432200</v>
       </c>
       <c r="H225" t="n">
-        <v>44.3104133605957</v>
+        <v>44.31040954589844</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>484000</v>
       </c>
       <c r="H227" t="n">
-        <v>43.92912673950195</v>
+        <v>43.92913055419922</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>429900</v>
       </c>
       <c r="H228" t="n">
-        <v>43.73849105834961</v>
+        <v>43.73848342895508</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -7546,7 +7546,7 @@
         <v>389900</v>
       </c>
       <c r="H229" t="n">
-        <v>43.24826812744141</v>
+        <v>43.24826049804688</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -7608,7 +7608,7 @@
         <v>553700</v>
       </c>
       <c r="H231" t="n">
-        <v>45.12744140625</v>
+        <v>45.12744522094727</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>412800</v>
       </c>
       <c r="H233" t="n">
-        <v>45.16375350952148</v>
+        <v>45.16375732421875</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>466300</v>
       </c>
       <c r="H234" t="n">
-        <v>44.96403503417969</v>
+        <v>44.96403121948242</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -7794,7 +7794,7 @@
         <v>439400</v>
       </c>
       <c r="H237" t="n">
-        <v>42.56740951538086</v>
+        <v>42.56740570068359</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>972700</v>
       </c>
       <c r="H238" t="n">
-        <v>43.39351654052734</v>
+        <v>43.39351272583008</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -7887,7 +7887,7 @@
         <v>350300</v>
       </c>
       <c r="H240" t="n">
-        <v>44.07437515258789</v>
+        <v>44.07438278198242</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>469100</v>
       </c>
       <c r="H241" t="n">
-        <v>44.6826171875</v>
+        <v>44.68261337280273</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>410100</v>
       </c>
       <c r="H242" t="n">
-        <v>44.092529296875</v>
+        <v>44.09253692626953</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -7980,7 +7980,7 @@
         <v>440800</v>
       </c>
       <c r="H243" t="n">
-        <v>44.88233184814453</v>
+        <v>44.88232803344727</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -8011,7 +8011,7 @@
         <v>473800</v>
       </c>
       <c r="H244" t="n">
-        <v>44.58275985717773</v>
+        <v>44.5827522277832</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -8042,7 +8042,7 @@
         <v>760700</v>
       </c>
       <c r="H245" t="n">
-        <v>43.92912673950195</v>
+        <v>43.92913055419922</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -8104,7 +8104,7 @@
         <v>442400</v>
       </c>
       <c r="H247" t="n">
-        <v>44.13792419433594</v>
+        <v>44.1379280090332</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -8135,7 +8135,7 @@
         <v>470300</v>
       </c>
       <c r="H248" t="n">
-        <v>43.2755012512207</v>
+        <v>43.27549743652344</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -8166,7 +8166,7 @@
         <v>658200</v>
       </c>
       <c r="H249" t="n">
-        <v>42.73080825805664</v>
+        <v>42.73081588745117</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -8197,7 +8197,7 @@
         <v>496700</v>
       </c>
       <c r="H250" t="n">
-        <v>42.0227165222168</v>
+        <v>42.02272415161133</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>811300</v>
       </c>
       <c r="H251" t="n">
-        <v>42.79436111450195</v>
+        <v>42.79435729980469</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>726700</v>
       </c>
       <c r="H254" t="n">
-        <v>42.59687423706055</v>
+        <v>42.59688568115234</v>
       </c>
       <c r="I254" t="n">
         <v>0.42</v>
@@ -8352,7 +8352,7 @@
         <v>567000</v>
       </c>
       <c r="H255" t="n">
-        <v>43.20134735107422</v>
+        <v>43.20134353637695</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>487500</v>
       </c>
       <c r="H256" t="n">
-        <v>42.67930221557617</v>
+        <v>42.67930603027344</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>1922100</v>
       </c>
       <c r="H257" t="n">
-        <v>42.27632141113281</v>
+        <v>42.27632522583008</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -8445,7 +8445,7 @@
         <v>681100</v>
       </c>
       <c r="H258" t="n">
-        <v>41.80923461914062</v>
+        <v>41.80924224853516</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>548300</v>
       </c>
       <c r="H259" t="n">
-        <v>41.62606430053711</v>
+        <v>41.62606048583984</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -8507,7 +8507,7 @@
         <v>631700</v>
       </c>
       <c r="H260" t="n">
-        <v>42.0290412902832</v>
+        <v>42.02903747558594</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -8569,7 +8569,7 @@
         <v>693200</v>
       </c>
       <c r="H262" t="n">
-        <v>42.67014312744141</v>
+        <v>42.67014694213867</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>823800</v>
       </c>
       <c r="H264" t="n">
-        <v>42.404541015625</v>
+        <v>42.40454483032227</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>827000</v>
       </c>
       <c r="H266" t="n">
-        <v>41.06738662719727</v>
+        <v>41.0673828125</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>838500</v>
       </c>
       <c r="H267" t="n">
-        <v>41.68101119995117</v>
+        <v>41.68100738525391</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>816200</v>
       </c>
       <c r="H268" t="n">
-        <v>42.17558288574219</v>
+        <v>42.17557525634766</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>867700</v>
       </c>
       <c r="H269" t="n">
-        <v>41.62606430053711</v>
+        <v>41.62606048583984</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>695400</v>
       </c>
       <c r="H271" t="n">
-        <v>41.7359619140625</v>
+        <v>41.73596572875977</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>519900</v>
       </c>
       <c r="H274" t="n">
-        <v>41.51616287231445</v>
+        <v>41.51616668701172</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -8972,7 +8972,7 @@
         <v>702200</v>
       </c>
       <c r="H275" t="n">
-        <v>40.73766708374023</v>
+        <v>40.7376708984375</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -9096,7 +9096,7 @@
         <v>508400</v>
       </c>
       <c r="H279" t="n">
-        <v>42.28548049926758</v>
+        <v>42.28548431396484</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>675800</v>
       </c>
       <c r="H280" t="n">
-        <v>43.19218826293945</v>
+        <v>43.19219207763672</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>622100</v>
       </c>
       <c r="H282" t="n">
-        <v>43.40283203125</v>
+        <v>43.40283966064453</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -9220,7 +9220,7 @@
         <v>700700</v>
       </c>
       <c r="H283" t="n">
-        <v>43.73255157470703</v>
+        <v>43.73254776000977</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>648400</v>
       </c>
       <c r="H284" t="n">
-        <v>43.33872222900391</v>
+        <v>43.33872985839844</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -9313,7 +9313,7 @@
         <v>1224700</v>
       </c>
       <c r="H286" t="n">
-        <v>43.91572189331055</v>
+        <v>43.91572570800781</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>2373400</v>
       </c>
       <c r="H287" t="n">
-        <v>42.90827560424805</v>
+        <v>42.90826797485352</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -9375,7 +9375,7 @@
         <v>784300</v>
       </c>
       <c r="H288" t="n">
-        <v>44.05310440063477</v>
+        <v>44.0531005859375</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>2524800</v>
       </c>
       <c r="H289" t="n">
-        <v>39.87675476074219</v>
+        <v>39.87675094604492</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -9437,7 +9437,7 @@
         <v>1275800</v>
       </c>
       <c r="H290" t="n">
-        <v>39.94086837768555</v>
+        <v>39.94087219238281</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>1381800</v>
       </c>
       <c r="H294" t="n">
-        <v>39.80349349975586</v>
+        <v>39.80348968505859</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -9623,7 +9623,7 @@
         <v>759200</v>
       </c>
       <c r="H296" t="n">
-        <v>40.16067886352539</v>
+        <v>40.16068267822266</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>716400</v>
       </c>
       <c r="H297" t="n">
-        <v>40.80178451538086</v>
+        <v>40.80178070068359</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>705100</v>
       </c>
       <c r="H299" t="n">
-        <v>40.92084884643555</v>
+        <v>40.92084121704102</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -9747,7 +9747,7 @@
         <v>615100</v>
       </c>
       <c r="H300" t="n">
-        <v>40.05077743530273</v>
+        <v>40.0507698059082</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>850300</v>
       </c>
       <c r="H303" t="n">
-        <v>39.16238403320312</v>
+        <v>39.16238021850586</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -9871,7 +9871,7 @@
         <v>688100</v>
       </c>
       <c r="H304" t="n">
-        <v>39.4188232421875</v>
+        <v>39.41882705688477</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         <v>640600</v>
       </c>
       <c r="H305" t="n">
-        <v>38.7685661315918</v>
+        <v>38.76856231689453</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>719900</v>
       </c>
       <c r="H306" t="n">
-        <v>37.65121078491211</v>
+        <v>37.65121459960938</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -9964,7 +9964,7 @@
         <v>1418100</v>
       </c>
       <c r="H307" t="n">
-        <v>37.67868041992188</v>
+        <v>37.67868423461914</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -9995,7 +9995,7 @@
         <v>1466300</v>
       </c>
       <c r="H308" t="n">
-        <v>36.99178314208984</v>
+        <v>36.99178695678711</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -10026,7 +10026,7 @@
         <v>941000</v>
       </c>
       <c r="H309" t="n">
-        <v>37.12000274658203</v>
+        <v>37.1200065612793</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>802700</v>
       </c>
       <c r="H311" t="n">
-        <v>38.21903991699219</v>
+        <v>38.21904373168945</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>873700</v>
       </c>
       <c r="H313" t="n">
-        <v>39.72106170654297</v>
+        <v>39.72106552124023</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>1407400</v>
       </c>
       <c r="H315" t="n">
-        <v>38.56707000732422</v>
+        <v>38.56707382202148</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -10274,7 +10274,7 @@
         <v>1838000</v>
       </c>
       <c r="H317" t="n">
-        <v>37.53214645385742</v>
+        <v>37.53214263916016</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>2096600</v>
       </c>
       <c r="H318" t="n">
-        <v>38.05033493041992</v>
+        <v>38.05033874511719</v>
       </c>
       <c r="I318" t="n">
         <v>0.42</v>
@@ -10336,7 +10336,7 @@
         <v>1278400</v>
       </c>
       <c r="H319" t="n">
-        <v>38.37421035766602</v>
+        <v>38.37421417236328</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>1575900</v>
       </c>
       <c r="H320" t="n">
-        <v>38.24466323852539</v>
+        <v>38.24466705322266</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -10429,7 +10429,7 @@
         <v>5868600</v>
       </c>
       <c r="H322" t="n">
-        <v>35.16324996948242</v>
+        <v>35.16325378417969</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>2007500</v>
       </c>
       <c r="H324" t="n">
-        <v>36.51425933837891</v>
+        <v>36.51425552368164</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         <v>930800</v>
       </c>
       <c r="H325" t="n">
-        <v>36.61604690551758</v>
+        <v>36.61605072021484</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -10615,7 +10615,7 @@
         <v>724800</v>
       </c>
       <c r="H328" t="n">
-        <v>37.67094421386719</v>
+        <v>37.67094802856445</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -10708,7 +10708,7 @@
         <v>1533700</v>
       </c>
       <c r="H331" t="n">
-        <v>38.16138458251953</v>
+        <v>38.16138076782227</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -10801,7 +10801,7 @@
         <v>1179000</v>
       </c>
       <c r="H334" t="n">
-        <v>38.80912399291992</v>
+        <v>38.80912017822266</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -10863,7 +10863,7 @@
         <v>919400</v>
       </c>
       <c r="H336" t="n">
-        <v>38.67031860351562</v>
+        <v>38.67032623291016</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>796300</v>
       </c>
       <c r="H337" t="n">
-        <v>38.64255905151367</v>
+        <v>38.64256286621094</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>1325500</v>
       </c>
       <c r="H338" t="n">
-        <v>38.63330841064453</v>
+        <v>38.63330459594727</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -10956,7 +10956,7 @@
         <v>902800</v>
       </c>
       <c r="H339" t="n">
-        <v>39.00344848632812</v>
+        <v>39.00345230102539</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>1349000</v>
       </c>
       <c r="H340" t="n">
-        <v>38.38346862792969</v>
+        <v>38.38346099853516</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -11018,7 +11018,7 @@
         <v>1044300</v>
       </c>
       <c r="H341" t="n">
-        <v>37.68020248413086</v>
+        <v>37.68019866943359</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -11049,7 +11049,7 @@
         <v>825100</v>
       </c>
       <c r="H342" t="n">
-        <v>37.33781814575195</v>
+        <v>37.33782196044922</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>1351100</v>
       </c>
       <c r="H344" t="n">
-        <v>36.11635971069336</v>
+        <v>36.11636352539062</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>1732000</v>
       </c>
       <c r="H345" t="n">
-        <v>36.83812713623047</v>
+        <v>36.83813095092773</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -11328,7 +11328,7 @@
         <v>1612400</v>
       </c>
       <c r="H351" t="n">
-        <v>37.10648727416992</v>
+        <v>37.10648345947266</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -11421,7 +11421,7 @@
         <v>1483900</v>
       </c>
       <c r="H354" t="n">
-        <v>35.05221557617188</v>
+        <v>35.05220794677734</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>1508200</v>
       </c>
       <c r="H355" t="n">
-        <v>34.61729049682617</v>
+        <v>34.6172981262207</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>1977100</v>
       </c>
       <c r="H357" t="n">
-        <v>36.15337371826172</v>
+        <v>36.15337753295898</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>1588800</v>
       </c>
       <c r="H358" t="n">
-        <v>35.4593620300293</v>
+        <v>35.45936965942383</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -11607,7 +11607,7 @@
         <v>1241100</v>
       </c>
       <c r="H360" t="n">
-        <v>35.59816741943359</v>
+        <v>35.59815979003906</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -11669,7 +11669,7 @@
         <v>1098500</v>
       </c>
       <c r="H362" t="n">
-        <v>36.51425933837891</v>
+        <v>36.51425552368164</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -11700,7 +11700,7 @@
         <v>1125700</v>
       </c>
       <c r="H363" t="n">
-        <v>35.70920562744141</v>
+        <v>35.70920944213867</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -11762,7 +11762,7 @@
         <v>1768200</v>
       </c>
       <c r="H365" t="n">
-        <v>33.83074951171875</v>
+        <v>33.83075332641602</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>1215200</v>
       </c>
       <c r="H366" t="n">
-        <v>33.55313873291016</v>
+        <v>33.55314254760742</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>1222100</v>
       </c>
       <c r="H368" t="n">
-        <v>34.52475738525391</v>
+        <v>34.52476501464844</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -11886,7 +11886,7 @@
         <v>992200</v>
       </c>
       <c r="H369" t="n">
-        <v>34.31193542480469</v>
+        <v>34.31193923950195</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -11917,7 +11917,7 @@
         <v>1098100</v>
       </c>
       <c r="H370" t="n">
-        <v>33.71045684814453</v>
+        <v>33.71045303344727</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -11979,7 +11979,7 @@
         <v>941300</v>
       </c>
       <c r="H372" t="n">
-        <v>34.98743438720703</v>
+        <v>34.9874382019043</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -12041,7 +12041,7 @@
         <v>1611600</v>
       </c>
       <c r="H374" t="n">
-        <v>33.11822891235352</v>
+        <v>33.11823272705078</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>701200</v>
       </c>
       <c r="H376" t="n">
-        <v>34.21014404296875</v>
+        <v>34.21014022827148</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -12227,7 +12227,7 @@
         <v>1344400</v>
       </c>
       <c r="H380" t="n">
-        <v>33.98555755615234</v>
+        <v>33.98556137084961</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -12258,7 +12258,7 @@
         <v>1384100</v>
       </c>
       <c r="H381" t="n">
-        <v>34.54730224609375</v>
+        <v>34.54730606079102</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -12320,7 +12320,7 @@
         <v>3373100</v>
       </c>
       <c r="H383" t="n">
-        <v>34.6222038269043</v>
+        <v>34.62220764160156</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>987200</v>
       </c>
       <c r="H384" t="n">
-        <v>34.02301025390625</v>
+        <v>34.02300643920898</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -12413,7 +12413,7 @@
         <v>859800</v>
       </c>
       <c r="H386" t="n">
-        <v>33.48934936523438</v>
+        <v>33.48935317993164</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -12475,7 +12475,7 @@
         <v>1097300</v>
       </c>
       <c r="H388" t="n">
-        <v>33.67659759521484</v>
+        <v>33.67660140991211</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -12506,7 +12506,7 @@
         <v>800900</v>
       </c>
       <c r="H389" t="n">
-        <v>33.62978744506836</v>
+        <v>33.62978363037109</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -12537,7 +12537,7 @@
         <v>1091100</v>
       </c>
       <c r="H390" t="n">
-        <v>34.94052505493164</v>
+        <v>34.94052124023438</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -12630,7 +12630,7 @@
         <v>1781500</v>
       </c>
       <c r="H393" t="n">
-        <v>33.26464462280273</v>
+        <v>33.2646484375</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -12661,7 +12661,7 @@
         <v>880500</v>
       </c>
       <c r="H394" t="n">
-        <v>33.53615951538086</v>
+        <v>33.53616333007812</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -12692,7 +12692,7 @@
         <v>933000</v>
       </c>
       <c r="H395" t="n">
-        <v>33.04931640625</v>
+        <v>33.04931259155273</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -12754,7 +12754,7 @@
         <v>3341600</v>
       </c>
       <c r="H397" t="n">
-        <v>32.68418121337891</v>
+        <v>32.68418502807617</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -12785,7 +12785,7 @@
         <v>1091200</v>
       </c>
       <c r="H398" t="n">
-        <v>33.32082366943359</v>
+        <v>33.32082748413086</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -12816,7 +12816,7 @@
         <v>1137400</v>
       </c>
       <c r="H399" t="n">
-        <v>33.65787124633789</v>
+        <v>33.65787506103516</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -12878,7 +12878,7 @@
         <v>634200</v>
       </c>
       <c r="H401" t="n">
-        <v>33.48934936523438</v>
+        <v>33.48935317993164</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -12909,7 +12909,7 @@
         <v>623400</v>
       </c>
       <c r="H402" t="n">
-        <v>33.58297348022461</v>
+        <v>33.58297729492188</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -12940,7 +12940,7 @@
         <v>1202400</v>
       </c>
       <c r="H403" t="n">
-        <v>33.57361602783203</v>
+        <v>33.57361221313477</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -12971,7 +12971,7 @@
         <v>985600</v>
       </c>
       <c r="H404" t="n">
-        <v>34.74391174316406</v>
+        <v>34.74391937255859</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>819400</v>
       </c>
       <c r="H405" t="n">
-        <v>35.08095932006836</v>
+        <v>35.08096313476562</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -13064,7 +13064,7 @@
         <v>1065200</v>
       </c>
       <c r="H407" t="n">
-        <v>33.89193344116211</v>
+        <v>33.89193725585938</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -13095,7 +13095,7 @@
         <v>1400900</v>
       </c>
       <c r="H408" t="n">
-        <v>34.80945587158203</v>
+        <v>34.80945205688477</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -13126,7 +13126,7 @@
         <v>1219600</v>
       </c>
       <c r="H409" t="n">
-        <v>33.97620010375977</v>
+        <v>33.9761962890625</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -13157,7 +13157,7 @@
         <v>1044900</v>
       </c>
       <c r="H410" t="n">
-        <v>33.62978744506836</v>
+        <v>33.62978363037109</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -13250,7 +13250,7 @@
         <v>1354900</v>
       </c>
       <c r="H413" t="n">
-        <v>33.882568359375</v>
+        <v>33.88257598876953</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -13281,7 +13281,7 @@
         <v>2121600</v>
       </c>
       <c r="H414" t="n">
-        <v>35.89549255371094</v>
+        <v>35.89548873901367</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <v>1067500</v>
       </c>
       <c r="H418" t="n">
-        <v>34.57539367675781</v>
+        <v>34.57538986206055</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -13436,7 +13436,7 @@
         <v>1063900</v>
       </c>
       <c r="H419" t="n">
-        <v>33.8544807434082</v>
+        <v>33.85448455810547</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>1146600</v>
       </c>
       <c r="H421" t="n">
-        <v>34.06982040405273</v>
+        <v>34.06981658935547</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>1054200</v>
       </c>
       <c r="H427" t="n">
-        <v>34.65028762817383</v>
+        <v>34.65029144287109</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -13715,7 +13715,7 @@
         <v>760000</v>
       </c>
       <c r="H428" t="n">
-        <v>34.65028762817383</v>
+        <v>34.65029144287109</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -13746,7 +13746,7 @@
         <v>827900</v>
       </c>
       <c r="H429" t="n">
-        <v>34.14471817016602</v>
+        <v>34.14472198486328</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -13777,7 +13777,7 @@
         <v>796000</v>
       </c>
       <c r="H430" t="n">
-        <v>35.24948883056641</v>
+        <v>35.24948501586914</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -13839,7 +13839,7 @@
         <v>1127800</v>
       </c>
       <c r="H432" t="n">
-        <v>37.27177047729492</v>
+        <v>37.27176284790039</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -13932,7 +13932,7 @@
         <v>688700</v>
       </c>
       <c r="H435" t="n">
-        <v>36.73810958862305</v>
+        <v>36.73811340332031</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -13994,7 +13994,7 @@
         <v>1263300</v>
       </c>
       <c r="H437" t="n">
-        <v>36.45723724365234</v>
+        <v>36.45723342895508</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -14025,7 +14025,7 @@
         <v>761300</v>
       </c>
       <c r="H438" t="n">
-        <v>36.7287483215332</v>
+        <v>36.72874450683594</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>1245900</v>
       </c>
       <c r="H442" t="n">
-        <v>33.89193344116211</v>
+        <v>33.89193725585938</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -14180,7 +14180,7 @@
         <v>2193400</v>
       </c>
       <c r="H443" t="n">
-        <v>32.57454681396484</v>
+        <v>32.57455062866211</v>
       </c>
       <c r="I443" t="n">
         <v>0.44</v>
@@ -14397,7 +14397,7 @@
         <v>1063100</v>
       </c>
       <c r="H450" t="n">
-        <v>34.64066314697266</v>
+        <v>34.64066696166992</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -14428,7 +14428,7 @@
         <v>690600</v>
       </c>
       <c r="H451" t="n">
-        <v>34.29946899414062</v>
+        <v>34.29947280883789</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -14459,7 +14459,7 @@
         <v>740700</v>
       </c>
       <c r="H452" t="n">
-        <v>33.6739501953125</v>
+        <v>33.67394638061523</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -14521,7 +14521,7 @@
         <v>908600</v>
       </c>
       <c r="H454" t="n">
-        <v>32.77357864379883</v>
+        <v>32.77357482910156</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -14552,7 +14552,7 @@
         <v>693600</v>
       </c>
       <c r="H455" t="n">
-        <v>33.35170745849609</v>
+        <v>33.35171127319336</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -14583,7 +14583,7 @@
         <v>901200</v>
       </c>
       <c r="H456" t="n">
-        <v>33.910888671875</v>
+        <v>33.91088485717773</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -14676,7 +14676,7 @@
         <v>532200</v>
       </c>
       <c r="H459" t="n">
-        <v>34.09096527099609</v>
+        <v>34.09096908569336</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -14738,7 +14738,7 @@
         <v>712500</v>
       </c>
       <c r="H461" t="n">
-        <v>35.06716156005859</v>
+        <v>35.06715393066406</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -14831,7 +14831,7 @@
         <v>664400</v>
       </c>
       <c r="H464" t="n">
-        <v>34.93447494506836</v>
+        <v>34.93447113037109</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -14862,7 +14862,7 @@
         <v>524900</v>
       </c>
       <c r="H465" t="n">
-        <v>35.02924346923828</v>
+        <v>35.02924728393555</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -14924,7 +14924,7 @@
         <v>756800</v>
       </c>
       <c r="H467" t="n">
-        <v>36.32768630981445</v>
+        <v>36.32768249511719</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -14986,7 +14986,7 @@
         <v>736000</v>
       </c>
       <c r="H469" t="n">
-        <v>36.9152946472168</v>
+        <v>36.91529083251953</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -15048,7 +15048,7 @@
         <v>1089100</v>
       </c>
       <c r="H471" t="n">
-        <v>36.58357238769531</v>
+        <v>36.58357620239258</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -15203,7 +15203,7 @@
         <v>1503100</v>
       </c>
       <c r="H476" t="n">
-        <v>37.61663436889648</v>
+        <v>37.61663818359375</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -15265,7 +15265,7 @@
         <v>1007600</v>
       </c>
       <c r="H478" t="n">
-        <v>38.42223739624023</v>
+        <v>38.42223358154297</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -15327,7 +15327,7 @@
         <v>774500</v>
       </c>
       <c r="H480" t="n">
-        <v>38.39379501342773</v>
+        <v>38.393798828125</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -15451,7 +15451,7 @@
         <v>475000</v>
       </c>
       <c r="H484" t="n">
-        <v>39.32260513305664</v>
+        <v>39.32260894775391</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -15482,7 +15482,7 @@
         <v>701500</v>
       </c>
       <c r="H485" t="n">
-        <v>38.92454147338867</v>
+        <v>38.92454528808594</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -15761,7 +15761,7 @@
         <v>718800</v>
       </c>
       <c r="H494" t="n">
-        <v>36.9152946472168</v>
+        <v>36.91529083251953</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -15792,7 +15792,7 @@
         <v>758500</v>
       </c>
       <c r="H495" t="n">
-        <v>37.33230209350586</v>
+        <v>37.33230590820312</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -15854,7 +15854,7 @@
         <v>803000</v>
       </c>
       <c r="H497" t="n">
-        <v>36.22342681884766</v>
+        <v>36.22343063354492</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -15916,7 +15916,7 @@
         <v>593600</v>
       </c>
       <c r="H499" t="n">
-        <v>35.74006271362305</v>
+        <v>35.74006652832031</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -15947,7 +15947,7 @@
         <v>816200</v>
       </c>
       <c r="H500" t="n">
-        <v>34.4890251159668</v>
+        <v>34.48902130126953</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -16071,7 +16071,7 @@
         <v>700400</v>
       </c>
       <c r="H504" t="n">
-        <v>37.07641220092773</v>
+        <v>37.07640838623047</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -16381,7 +16381,7 @@
         <v>1108600</v>
       </c>
       <c r="H514" t="n">
-        <v>31.97918891906738</v>
+        <v>31.97919082641602</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -16443,7 +16443,7 @@
         <v>815400</v>
       </c>
       <c r="H516" t="n">
-        <v>33.25452041625977</v>
+        <v>33.25452423095703</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -16474,7 +16474,7 @@
         <v>715700</v>
       </c>
       <c r="H517" t="n">
-        <v>32.13261032104492</v>
+        <v>32.13261413574219</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -16598,7 +16598,7 @@
         <v>569500</v>
       </c>
       <c r="H521" t="n">
-        <v>33.67643737792969</v>
+        <v>33.67643356323242</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -16691,7 +16691,7 @@
         <v>538000</v>
       </c>
       <c r="H524" t="n">
-        <v>33.25452041625977</v>
+        <v>33.25452423095703</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -16815,7 +16815,7 @@
         <v>883800</v>
       </c>
       <c r="H528" t="n">
-        <v>30.59838104248047</v>
+        <v>30.59837913513184</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -16877,7 +16877,7 @@
         <v>1268000</v>
       </c>
       <c r="H530" t="n">
-        <v>31.47097587585449</v>
+        <v>31.47097396850586</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -17032,7 +17032,7 @@
         <v>878800</v>
       </c>
       <c r="H535" t="n">
-        <v>31.48056602478027</v>
+        <v>31.48056793212891</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -17094,7 +17094,7 @@
         <v>964100</v>
       </c>
       <c r="H537" t="n">
-        <v>31.54768562316895</v>
+        <v>31.54768753051758</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -17156,7 +17156,7 @@
         <v>2255000</v>
       </c>
       <c r="H539" t="n">
-        <v>32.36275100708008</v>
+        <v>32.36274719238281</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -17218,7 +17218,7 @@
         <v>826400</v>
       </c>
       <c r="H541" t="n">
-        <v>30.93399238586426</v>
+        <v>30.93399047851562</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -17280,7 +17280,7 @@
         <v>651000</v>
       </c>
       <c r="H543" t="n">
-        <v>32.00795745849609</v>
+        <v>32.00796127319336</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -17528,7 +17528,7 @@
         <v>1057400</v>
       </c>
       <c r="H551" t="n">
-        <v>33.20657730102539</v>
+        <v>33.20658111572266</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -17559,7 +17559,7 @@
         <v>644700</v>
       </c>
       <c r="H552" t="n">
-        <v>33.03397750854492</v>
+        <v>33.03397369384766</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -17652,7 +17652,7 @@
         <v>815700</v>
       </c>
       <c r="H555" t="n">
-        <v>34.20382690429688</v>
+        <v>34.20383071899414</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -17869,7 +17869,7 @@
         <v>622000</v>
       </c>
       <c r="H562" t="n">
-        <v>33.8586311340332</v>
+        <v>33.85862731933594</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -17962,7 +17962,7 @@
         <v>627000</v>
       </c>
       <c r="H565" t="n">
-        <v>33.29287719726562</v>
+        <v>33.29288101196289</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -18055,7 +18055,7 @@
         <v>1893900</v>
       </c>
       <c r="H568" t="n">
-        <v>32.16138458251953</v>
+        <v>32.16138076782227</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -23840,19 +23840,19 @@
         <v>26.79999923706055</v>
       </c>
       <c r="D755" t="n">
-        <v>26.95999908447266</v>
+        <v>27.02499961853027</v>
       </c>
       <c r="E755" t="n">
-        <v>26.78499984741211</v>
+        <v>26.76000022888184</v>
       </c>
       <c r="F755" t="n">
-        <v>26.94000053405762</v>
+        <v>26.79000091552734</v>
       </c>
       <c r="G755" t="n">
-        <v>38521</v>
+        <v>113967</v>
       </c>
       <c r="H755" t="n">
-        <v>26.94000053405762</v>
+        <v>26.79000091552734</v>
       </c>
       <c r="I755" t="n">
         <v>0</v>
